--- a/data/trans_orig/IP12_R1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP12_R1_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FEFD8AC-D64A-421F-B9D6-C877BD55010F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEDFEECC-D1E5-48D2-B713-9FDC15AC4F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CE091D37-6E53-4567-B07C-72749D0191C7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30A7E2B5-8052-4D91-A49A-42B02AE5B80D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -104,13 +104,13 @@
     <t>1,69%</t>
   </si>
   <si>
-    <t>5,67%</t>
+    <t>6,04%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>2,84%</t>
+    <t>2,54%</t>
   </si>
   <si>
     <t>97,72%</t>
@@ -119,13 +119,13 @@
     <t>98,31%</t>
   </si>
   <si>
-    <t>94,33%</t>
+    <t>93,96%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>97,16%</t>
+    <t>97,46%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -134,55 +134,55 @@
     <t>2,32%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
   </si>
   <si>
     <t>2,26%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
   </si>
   <si>
     <t>97,68%</t>
   </si>
   <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>97,74%</t>
   </si>
   <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>97,71%</t>
   </si>
   <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -191,91 +191,91 @@
     <t>0,97%</t>
   </si>
   <si>
-    <t>3,43%</t>
+    <t>3,0%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>96,57%</t>
+    <t>97,0%</t>
   </si>
   <si>
     <t>97,47%</t>
   </si>
   <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
   </si>
   <si>
     <t>97,97%</t>
   </si>
   <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -690,7 +690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F099E4C-0C7B-4A48-8E60-38089159A274}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064FA7EF-1A71-4F90-8D1E-60E556B9ECB5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
